--- a/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_28_.xlsx
+++ b/src/analysis_examples/circainsilico/results_circainsilico/cosinor_simulation_28_.xlsx
@@ -564,7 +564,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>Gene</t>
+          <t>Simulation</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -589,14 +589,14 @@
       </c>
       <c r="L2" t="inlineStr">
         <is>
-          <t>[0.7763627435915674, 1.4158713057850536]</t>
+          <t>[0.7736976096342778, 1.4185364397423432]</t>
         </is>
       </c>
       <c r="M2" t="n">
-        <v>1.412814132351059e-08</v>
+        <v>1.717189546113218e-08</v>
       </c>
       <c r="N2" t="n">
-        <v>1.412814132351059e-08</v>
+        <v>1.717189546113218e-08</v>
       </c>
       <c r="O2" t="n">
         <v>0.9622896416401163</v>
@@ -617,14 +617,14 @@
       </c>
       <c r="T2" t="inlineStr">
         <is>
-          <t>[0.09233408096573836, 0.432492040009853]</t>
+          <t>[0.0923382497790538, 0.43248787119653753]</t>
         </is>
       </c>
       <c r="U2" t="n">
-        <v>0.003264491924343416</v>
+        <v>0.003263801136168309</v>
       </c>
       <c r="V2" t="n">
-        <v>0.003264491924343416</v>
+        <v>0.003263801136168309</v>
       </c>
       <c r="W2" t="n">
         <v>22.14504504504586</v>
